--- a/lista_de_resultados_CI_23a_16-07-2024.xlsx
+++ b/lista_de_resultados_CI_23a_16-07-2024.xlsx
@@ -585,91 +585,91 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4343313895750838</v>
+        <v>0.5487544462493098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5813810811767951</v>
+        <v>0.6150207091830326</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5856380242244843</v>
+        <v>0.5908222287773915</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5812064334277045</v>
+        <v>0.5921505943104284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6117850364039439</v>
+        <v>0.6279760514224144</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6108492031742734</v>
+        <v>0.6405518407514461</v>
       </c>
       <c r="H2" t="n">
-        <v>0.581291566306403</v>
+        <v>0.6356998452199492</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5855243017314363</v>
+        <v>0.6467341133093863</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3347229824395299</v>
+        <v>0.3700882721479928</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3607335060655221</v>
+        <v>0.3650529666425789</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3589788299572311</v>
+        <v>0.3682211499341829</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3143002410672891</v>
+        <v>0.3341564179866157</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2972795585307437</v>
+        <v>0.3383463778998846</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3002890002488378</v>
+        <v>0.3678499258878539</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2860793770436325</v>
+        <v>0.3668567626698457</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4277070634316538</v>
+        <v>0.6181571373541295</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5053010857063527</v>
+        <v>0.6677393288682805</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5059983612235266</v>
+        <v>0.6999872915021232</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3846333582515314</v>
+        <v>0.5165423271122832</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3543501209681363</v>
+        <v>0.51278716230009</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3861033214655196</v>
+        <v>0.7865194195165829</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3481918300985412</v>
+        <v>0.6959215566910903</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3262698553839681</v>
+        <v>0.6899158747473022</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3600510081087915</v>
+        <v>0.7400603879412657</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3639598345182394</v>
+        <v>0.7654996319411974</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2833670254613236</v>
+        <v>0.6213761142942489</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2676353124088484</v>
+        <v>0.612906733963874</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.301187977704642</v>
+        <v>0.8349125097115104</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2756508973173974</v>
+        <v>0.7530530141799295</v>
       </c>
     </row>
     <row r="3">
@@ -677,91 +677,91 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4157327592004702</v>
+        <v>0.5222408130355556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5587087640274868</v>
+        <v>0.5880192341717279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5634468857645119</v>
+        <v>0.5672216727528108</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5590321518811935</v>
+        <v>0.5693986550465433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5873729158398919</v>
+        <v>0.595766556047901</v>
       </c>
       <c r="G3" t="n">
-        <v>0.586025332883803</v>
+        <v>0.6067714370388216</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5573183173511232</v>
+        <v>0.6093347720779304</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5611112472517226</v>
+        <v>0.6178852584185416</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3202305542052277</v>
+        <v>0.3540920302469399</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3485268010136043</v>
+        <v>0.3517205372355656</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3466215871703779</v>
+        <v>0.3562086521634499</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2990567334503652</v>
+        <v>0.3079081706028605</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2797828225933592</v>
+        <v>0.3114185985288193</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2838257221831418</v>
+        <v>0.3574014375304262</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2676423801260935</v>
+        <v>0.3538116689671318</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4038034787325357</v>
+        <v>0.5240084824279299</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4893630602840922</v>
+        <v>0.5569284958146254</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4891320439556969</v>
+        <v>0.5818560588233029</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3572117421817489</v>
+        <v>0.413959338718096</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3207816105942993</v>
+        <v>0.413782867092825</v>
       </c>
       <c r="V3" t="n">
-        <v>0.34963318804489</v>
+        <v>0.6333068999464251</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3041851138294477</v>
+        <v>0.5803764765203636</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2952656547057098</v>
+        <v>0.6722229458706144</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3323901570142064</v>
+        <v>0.7217317327419593</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3360160823355867</v>
+        <v>0.7420303358528038</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2490775792708306</v>
+        <v>0.6134839058790792</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2295028088054114</v>
+        <v>0.6033205793974064</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2607467487123341</v>
+        <v>0.7848035506217593</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2296904521895157</v>
+        <v>0.7210686234971996</v>
       </c>
     </row>
     <row r="4">
@@ -769,91 +769,91 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3983386007633429</v>
+        <v>0.4804727570173982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5583931506420055</v>
+        <v>0.5855190110289589</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5615631845352731</v>
+        <v>0.5648140078553409</v>
       </c>
       <c r="E4" t="n">
-        <v>0.555901401472026</v>
+        <v>0.5655144696527606</v>
       </c>
       <c r="F4" t="n">
-        <v>0.596036100480473</v>
+        <v>0.6025517618901278</v>
       </c>
       <c r="G4" t="n">
-        <v>0.595142932151974</v>
+        <v>0.6141651130778739</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5563671937557985</v>
+        <v>0.6064290703864413</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5620933053233491</v>
+        <v>0.617212771026964</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2611534938746236</v>
+        <v>0.2861863832389526</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2934347396317448</v>
+        <v>0.295778336821544</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2913276148888387</v>
+        <v>0.2982441655315792</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2283523917197018</v>
+        <v>0.2361834358508499</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2029802553686714</v>
+        <v>0.2294953894061627</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2111792096517867</v>
+        <v>0.2688656531473996</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1890000026193243</v>
+        <v>0.2592169335399102</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4202919393335076</v>
+        <v>0.507472649826471</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5236185641853774</v>
+        <v>0.5684029592971167</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5241852872459207</v>
+        <v>0.5928114304433647</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3658731126652344</v>
+        <v>0.4031054422279415</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3268587393677835</v>
+        <v>0.3893176875695425</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3800946802300403</v>
+        <v>0.5961564055250449</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3328224189179789</v>
+        <v>0.5310530896592147</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2842905138374221</v>
+        <v>0.5679628744620776</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3215399251925103</v>
+        <v>0.6216785310896048</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.326750136324818</v>
+        <v>0.6400997087804267</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2292093616175074</v>
+        <v>0.5003186919219776</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2095078515001468</v>
+        <v>0.4869874950294629</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2640444656379111</v>
+        <v>0.6421230648972036</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2331076723845173</v>
+        <v>0.5885289903265453</v>
       </c>
     </row>
     <row r="5">
@@ -861,91 +861,91 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3968175225568623</v>
+        <v>0.4927443483460601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.479689278835831</v>
+        <v>0.5021852727757184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4820212850972609</v>
+        <v>0.4858178492407913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4803438530144633</v>
+        <v>0.4876433134032423</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4921104229497761</v>
+        <v>0.5038609478127546</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4917974918368028</v>
+        <v>0.5113433615617561</v>
       </c>
       <c r="H5" t="n">
-        <v>0.480960051975069</v>
+        <v>0.5148266043920988</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4825788355056875</v>
+        <v>0.5202076042985367</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3420450196798132</v>
+        <v>0.3721558225801401</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3575254890471758</v>
+        <v>0.3614679717965399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3568787258979242</v>
+        <v>0.3646602958074597</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3288263651268968</v>
+        <v>0.3473163060505367</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3195297612816324</v>
+        <v>0.354651011764086</v>
       </c>
       <c r="O5" t="n">
-        <v>0.324977660093867</v>
+        <v>0.3787872525557823</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3168776922349227</v>
+        <v>0.3809010034193409</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3711649849575128</v>
+        <v>0.5412261730632532</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4133556037233636</v>
+        <v>0.5483097022692452</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4142508472631765</v>
+        <v>0.5650084844197077</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3419683471073334</v>
+        <v>0.4766202631598714</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3249531565393413</v>
+        <v>0.481603519628959</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3426806838340447</v>
+        <v>0.6471187148037411</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3203045607226512</v>
+        <v>0.6172829525665452</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3374017648986483</v>
+        <v>0.6277430440695829</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3584727722985963</v>
+        <v>0.6439740098466608</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3603023075464779</v>
+        <v>0.654680811879878</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3159710379627775</v>
+        <v>0.592869127976702</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.307140964077364</v>
+        <v>0.590296464415381</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3202312251166652</v>
+        <v>0.7135793655557205</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.306423025290815</v>
+        <v>0.6860518801332826</v>
       </c>
     </row>
     <row r="6">
@@ -953,91 +953,91 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4231470414254832</v>
+        <v>0.481595572638968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5837848053862644</v>
+        <v>0.6061203854342913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5869085855437806</v>
+        <v>0.5893212030343644</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5805047514965452</v>
+        <v>0.5886267903354614</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6249662473007829</v>
+        <v>0.6284776206528743</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6237660874436516</v>
+        <v>0.6383019104267402</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5798497604283881</v>
+        <v>0.6225182898445232</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5861479698799703</v>
+        <v>0.6329850221914345</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2872081581508644</v>
+        <v>0.3004888531520479</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3182710353115981</v>
+        <v>0.3193851293987207</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3156041586842486</v>
+        <v>0.3196318778655785</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2603915293289562</v>
+        <v>0.2619268054542775</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2370751877883664</v>
+        <v>0.2471827288949654</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2364517588289436</v>
+        <v>0.2670925453914599</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2168407524621772</v>
+        <v>0.2524267360805307</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4700171086072095</v>
+        <v>0.5200044687905599</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5869170000065023</v>
+        <v>0.5982233393738355</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5859865813646612</v>
+        <v>0.6192099484072559</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4218081070489634</v>
+        <v>0.4279644264621346</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3816726823864398</v>
+        <v>0.4050081350209693</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4293596137707774</v>
+        <v>0.5756747405564162</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3822715015657688</v>
+        <v>0.5081223803790015</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2996361515050209</v>
+        <v>0.490262099693731</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3357336017629673</v>
+        <v>0.5417231011345539</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3413584253945414</v>
+        <v>0.5558241263012998</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2422002191118617</v>
+        <v>0.4185556103783312</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2234435022472695</v>
+        <v>0.4014009888746961</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2808133791300778</v>
+        <v>0.5253590915822814</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2504357177297277</v>
+        <v>0.4790585469410924</v>
       </c>
     </row>
     <row r="7">
@@ -1045,91 +1045,91 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4275342496270048</v>
+        <v>0.4901211218035624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5481552430377196</v>
+        <v>0.5663727052987739</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5500477816287765</v>
+        <v>0.5531945735571648</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5467371366660153</v>
+        <v>0.552423899786643</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5716248071807809</v>
+        <v>0.5822075763313455</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5715381158708289</v>
+        <v>0.5888503962221485</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5489467013362749</v>
+        <v>0.5760882889983918</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5526867324142889</v>
+        <v>0.5835235674822296</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3326617792543262</v>
+        <v>0.350393328529914</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3533493034572496</v>
+        <v>0.3561615220181592</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3522554787064138</v>
+        <v>0.3562812629752721</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3123778221807237</v>
+        <v>0.3296337429607048</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2992117047872863</v>
+        <v>0.3257655331609546</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3055365381449038</v>
+        <v>0.3320691536725317</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2943295826033855</v>
+        <v>0.3280291083757471</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4253978866503524</v>
+        <v>0.557384363100488</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4920246406201793</v>
+        <v>0.6091681106686767</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4937268966659328</v>
+        <v>0.6239161357948864</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3830096574386064</v>
+        <v>0.4949802938235659</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3580017736108556</v>
+        <v>0.482566862925174</v>
       </c>
       <c r="V7" t="n">
-        <v>0.397054511432088</v>
+        <v>0.6143543639454692</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3643924679643499</v>
+        <v>0.5704205561883269</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3505911664341017</v>
+        <v>0.5113581009666154</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3776634729619965</v>
+        <v>0.53906022269522</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3812394284845692</v>
+        <v>0.549017750894938</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3168444168600968</v>
+        <v>0.4633533934556767</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3055136247869524</v>
+        <v>0.4558940850749247</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3361094388147493</v>
+        <v>0.5470962914221179</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.3168710410686629</v>
+        <v>0.5206271658452135</v>
       </c>
     </row>
     <row r="8">
@@ -1137,91 +1137,91 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4828187753017551</v>
+        <v>0.5547516683013141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5103127634157272</v>
+        <v>0.5267232361060553</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5115595521894344</v>
+        <v>0.515460747122833</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5125550009239461</v>
+        <v>0.5168056871444731</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5087331258005826</v>
+        <v>0.5245249236659851</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5090660819956088</v>
+        <v>0.5291010009708349</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5151461640134231</v>
+        <v>0.5328011595934826</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5143568646148793</v>
+        <v>0.5358264565377945</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4753039308425748</v>
+        <v>0.4959830512985642</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4799985243734571</v>
+        <v>0.4839061770978691</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4812919396655657</v>
+        <v>0.485509679138184</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4645417337830416</v>
+        <v>0.4886223932670944</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4627263612339926</v>
+        <v>0.4957334516818053</v>
       </c>
       <c r="O8" t="n">
-        <v>0.47791111309596</v>
+        <v>0.5036201609984166</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4742709578350805</v>
+        <v>0.5082006431730924</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4086278490524485</v>
+        <v>0.6132898823329369</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4095420005450248</v>
+        <v>0.6023657686593327</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4116933711377178</v>
+        <v>0.6114006204790766</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3900858042496628</v>
+        <v>0.5857902388405486</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3912430724719419</v>
+        <v>0.5938636027820787</v>
       </c>
       <c r="V8" t="n">
-        <v>0.396795540632948</v>
+        <v>0.6933909903790727</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3945694339662266</v>
+        <v>0.6855706940396415</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4934882230013797</v>
+        <v>0.6644482430946109</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5035624236953774</v>
+        <v>0.6623560624847875</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5026584908101375</v>
+        <v>0.6680734853807929</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.494022543304824</v>
+        <v>0.6501185767786869</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4895816536467061</v>
+        <v>0.652954055677358</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4835805162757721</v>
+        <v>0.7296025714062651</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4796111155994668</v>
+        <v>0.7217855148090941</v>
       </c>
     </row>
     <row r="9">
@@ -1229,91 +1229,91 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3834880176782255</v>
+        <v>0.4591479245457704</v>
       </c>
       <c r="C9" t="n">
-        <v>0.534042993386305</v>
+        <v>0.5572885285555155</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5369867289211093</v>
+        <v>0.5392588500714175</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5317662360078214</v>
+        <v>0.5406081339155542</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5679485264478432</v>
+        <v>0.5694918193782986</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5670816264258792</v>
+        <v>0.5796177220253433</v>
       </c>
       <c r="H9" t="n">
-        <v>0.53178954931379</v>
+        <v>0.5780108872505392</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5369957980384439</v>
+        <v>0.5866259251190407</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2525552377654809</v>
+        <v>0.2765729606814956</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2847279833510123</v>
+        <v>0.2863554930555199</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2825258347891362</v>
+        <v>0.2897130662816047</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2215920906598854</v>
+        <v>0.2208218722312772</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1960343018732215</v>
+        <v>0.2143194925887704</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2026871610279333</v>
+        <v>0.2650544702376168</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1802497781589798</v>
+        <v>0.2545929340253534</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4063118637541667</v>
+        <v>0.443855813925235</v>
       </c>
       <c r="R9" t="n">
-        <v>0.508097398804309</v>
+        <v>0.4926779688682545</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5082535196187467</v>
+        <v>0.5126759997248348</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3538126854846073</v>
+        <v>0.3362678637052678</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3139786736844712</v>
+        <v>0.3236329096102142</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3641630604570731</v>
+        <v>0.5087545655475521</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3160751542609403</v>
+        <v>0.4572417499273617</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2660215615049897</v>
+        <v>0.5567088115778891</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3038822511196103</v>
+        <v>0.6091742899098569</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3089857724780568</v>
+        <v>0.6247049868237796</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.209167131316045</v>
+        <v>0.497478889391383</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1877252260176291</v>
+        <v>0.4835433649519588</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.242893976921897</v>
+        <v>0.6195081027425143</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2099293750627683</v>
+        <v>0.5713649193293828</v>
       </c>
     </row>
     <row r="10">
@@ -1321,91 +1321,91 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3759673839190422</v>
+        <v>0.4636324024412458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4430665953124544</v>
+        <v>0.4620468637348027</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4454331424129647</v>
+        <v>0.4481609255225371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4440666932519385</v>
+        <v>0.4507541871880857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.452432262133687</v>
+        <v>0.4589716746202709</v>
       </c>
       <c r="G10" t="n">
-        <v>0.451916256106011</v>
+        <v>0.4654691916345043</v>
       </c>
       <c r="H10" t="n">
-        <v>0.443486513625267</v>
+        <v>0.4748623657414415</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4445401681946483</v>
+        <v>0.4783909220950516</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3323829332936035</v>
+        <v>0.3612792009014662</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3468391320139715</v>
+        <v>0.3499435111351547</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3461657387823811</v>
+        <v>0.3542169180706881</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3210407789520388</v>
+        <v>0.3318377431443255</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3121137412632162</v>
+        <v>0.340354706542051</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3167162201378451</v>
+        <v>0.3744312974547239</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3090436956455949</v>
+        <v>0.3760204185348535</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.349991797136028</v>
+        <v>0.465857465985311</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3878081836190488</v>
+        <v>0.4582865972968304</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3880563559932373</v>
+        <v>0.4732332047330803</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3244525699751567</v>
+        <v>0.4006992834156398</v>
       </c>
       <c r="U10" t="n">
-        <v>0.307798454337992</v>
+        <v>0.4117554853260427</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3194030441247889</v>
+        <v>0.5521035176067839</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2981491813225342</v>
+        <v>0.5369799620054595</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3188791077474569</v>
+        <v>0.611278467371842</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.3378818304934025</v>
+        <v>0.6217826372375899</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3392443059802147</v>
+        <v>0.6289759000492369</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3001361888988718</v>
+        <v>0.5898900908932649</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.2917230716645389</v>
+        <v>0.5880722858832211</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3005449794784785</v>
+        <v>0.6847728325346035</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2877706852117689</v>
+        <v>0.6670106954526674</v>
       </c>
     </row>
     <row r="11">
@@ -1413,91 +1413,91 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4116995162616247</v>
+        <v>0.4586842933606911</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5663491967962713</v>
+        <v>0.5847139587533379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5694475357448635</v>
+        <v>0.5708898238118791</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5632745654861354</v>
+        <v>0.5705374946532211</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6053527401955426</v>
+        <v>0.60412364840712</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6041336562498956</v>
+        <v>0.6125074898975923</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5621668152972569</v>
+        <v>0.600838182235124</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5681505024064603</v>
+        <v>0.6095406876353884</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2840142840564175</v>
+        <v>0.2935944379127345</v>
       </c>
       <c r="K11" t="n">
-        <v>0.314162653650721</v>
+        <v>0.314355238251774</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3113588939921554</v>
+        <v>0.3149820641024014</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2608123499570854</v>
+        <v>0.2534693234691192</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2385579274197467</v>
+        <v>0.2374132764887028</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2348206654125848</v>
+        <v>0.2637196389126134</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2163466227580022</v>
+        <v>0.2475542721160622</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4608903311238814</v>
+        <v>0.4554510335363228</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5763126129307733</v>
+        <v>0.5265721546833302</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5749607794447305</v>
+        <v>0.5424195526398061</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4161680697628748</v>
+        <v>0.3646205356262327</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3763027455662121</v>
+        <v>0.3386608882138104</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4189046321822482</v>
+        <v>0.4800812566457374</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3723668592793711</v>
+        <v>0.4201953943967399</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2834847878370013</v>
+        <v>0.4594943253953214</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3196655541132359</v>
+        <v>0.5117733571656442</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3252094749761703</v>
+        <v>0.5232871272349284</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2249585415574167</v>
+        <v>0.3946525144496663</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2054242500348062</v>
+        <v>0.3755487328160385</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2621649883775347</v>
+        <v>0.4778995560452958</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2307956761944421</v>
+        <v>0.4339811154156679</v>
       </c>
     </row>
     <row r="12">
@@ -1505,91 +1505,91 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4122110913646896</v>
+        <v>0.4593841959776558</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5201242064845244</v>
+        <v>0.5334083233931959</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5221159340062117</v>
+        <v>0.5239998562058656</v>
       </c>
       <c r="E12" t="n">
-        <v>0.519133938349022</v>
+        <v>0.5237259799783177</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5402992119052321</v>
+        <v>0.5450452430395165</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5400044859469386</v>
+        <v>0.5500397294252936</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5201577876528684</v>
+        <v>0.5425316143939679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5233004530328119</v>
+        <v>0.547798027492337</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3268921204897316</v>
+        <v>0.3397640353558714</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3469218829224808</v>
+        <v>0.3484575527618048</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3457225116850979</v>
+        <v>0.3491644492850434</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3089217307004173</v>
+        <v>0.3156181190370413</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2960443679109811</v>
+        <v>0.3101397339329461</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3006793496958769</v>
+        <v>0.3249353639753119</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2898984174995489</v>
+        <v>0.3185871162491232</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4115508706698866</v>
+        <v>0.4785836411138206</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4749059722533543</v>
+        <v>0.5211564222213596</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4759274534705678</v>
+        <v>0.5318249109544995</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3731329280528033</v>
+        <v>0.4191615827627171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3482658095342568</v>
+        <v>0.4066340777048914</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3815540655812391</v>
+        <v>0.5096315829305833</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3498397298145665</v>
+        <v>0.4747866052934182</v>
       </c>
       <c r="X12" t="n">
-        <v>0.334246932088031</v>
+        <v>0.4760138130911367</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.3600895431852753</v>
+        <v>0.503710825724337</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3633542777521425</v>
+        <v>0.5109570078814926</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3019826174221394</v>
+        <v>0.4367759310052339</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2908404975878577</v>
+        <v>0.4277445281285692</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.3183064720806081</v>
+        <v>0.4968709173538435</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2995947405354777</v>
+        <v>0.4733654728337816</v>
       </c>
     </row>
     <row r="13">
@@ -1597,91 +1597,91 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4634704095535007</v>
+        <v>0.5209269667578522</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4766725267713932</v>
+        <v>0.4890182074921102</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4779684088494027</v>
+        <v>0.4806670915840395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4790201387642826</v>
+        <v>0.482458051594945</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4735321295371711</v>
+        <v>0.4837989818637334</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4736391592914017</v>
+        <v>0.487339578609789</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4803520132698291</v>
+        <v>0.4950495905862149</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4792722731215714</v>
+        <v>0.4965398143534928</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4673608232150739</v>
+        <v>0.4845249029942018</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4702297894027666</v>
+        <v>0.4731540944497038</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4714862582693274</v>
+        <v>0.4752312883147509</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4590580006457007</v>
+        <v>0.4762933845795884</v>
       </c>
       <c r="N13" t="n">
-        <v>0.458173226422159</v>
+        <v>0.4834911013103189</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4719512284333492</v>
+        <v>0.4962167146213501</v>
       </c>
       <c r="P13" t="n">
-        <v>0.469295443181106</v>
+        <v>0.5002302725513146</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3919810828623504</v>
+        <v>0.5416770709036323</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3876178550913359</v>
+        <v>0.5217975356664745</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3893966597457661</v>
+        <v>0.5290543892879528</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3772346471729163</v>
+        <v>0.5201968657497392</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3802629317460117</v>
+        <v>0.5317026972324884</v>
       </c>
       <c r="V13" t="n">
-        <v>0.381218924383368</v>
+        <v>0.60361231255059</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3817855967658287</v>
+        <v>0.6052030316080557</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4783997139086517</v>
+        <v>0.6313111090377698</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.484554859784769</v>
+        <v>0.6256785721825376</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4832609574815762</v>
+        <v>0.6286986211190571</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.4824954143454956</v>
+        <v>0.62902638045363</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.4794311844767612</v>
+        <v>0.6325641850924025</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.4698835354968148</v>
+        <v>0.6829083231963586</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.4681564847721486</v>
+        <v>0.6821010285108894</v>
       </c>
     </row>
     <row r="14">
@@ -1689,91 +1689,91 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4525860788021348</v>
+        <v>0.4710807838717639</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5692346807142565</v>
+        <v>0.576342895868293</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5713157561962917</v>
+        <v>0.572151078421954</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5673119026085217</v>
+        <v>0.5699349968259398</v>
       </c>
       <c r="F14" t="n">
-        <v>0.594382463462393</v>
+        <v>0.5957707300218897</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5937840705769788</v>
+        <v>0.5983956837272666</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5671937319005735</v>
+        <v>0.5801402461307203</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5712117779803753</v>
+        <v>0.5852233770808462</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3588595719669392</v>
+        <v>0.3619340343009245</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3804134992545374</v>
+        <v>0.3807403797388763</v>
       </c>
       <c r="L14" t="n">
-        <v>0.378419811029744</v>
+        <v>0.3794402692053195</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3435002018228248</v>
+        <v>0.3441528811993489</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3292852797190763</v>
+        <v>0.3313446639654435</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3267940788472868</v>
+        <v>0.3318546704331745</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3157088783780462</v>
+        <v>0.3208916131886309</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4817719670382379</v>
+        <v>0.5002661806031259</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5593657409662023</v>
+        <v>0.5671290790685651</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5591842165029647</v>
+        <v>0.5729500653846158</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4471860086695398</v>
+        <v>0.4525656449816378</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4182664287013906</v>
+        <v>0.4281823590597175</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4497735273657425</v>
+        <v>0.4913307388964125</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4149561602538014</v>
+        <v>0.4506105839511835</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3550357019366566</v>
+        <v>0.3940706776487193</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.3820644031982915</v>
+        <v>0.428043668809662</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3861571600389706</v>
+        <v>0.4340820769173422</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3160765979765186</v>
+        <v>0.3438334572609747</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3042674313603135</v>
+        <v>0.3289805527423159</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3388034546430108</v>
+        <v>0.3822077717034837</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.3180294904538975</v>
+        <v>0.3538192547620688</v>
       </c>
     </row>
     <row r="15">
@@ -1781,91 +1781,91 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.507033695542899</v>
+        <v>0.5290212530259698</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5607131277164464</v>
+        <v>0.5667819057885554</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5614382237645735</v>
+        <v>0.5633336419269062</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5613098061494404</v>
+        <v>0.5624134510325339</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5658998958574465</v>
+        <v>0.574877284781267</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5664249977099921</v>
+        <v>0.5765190245202195</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5648096623521806</v>
+        <v>0.5685254829063485</v>
       </c>
       <c r="I15" t="n">
-        <v>0.565494168102365</v>
+        <v>0.5711928381450573</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4722507814391776</v>
+        <v>0.4776486158602457</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4801110264758405</v>
+        <v>0.4818229696149735</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4808334167584292</v>
+        <v>0.4812908177605633</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4592349964196168</v>
+        <v>0.4726311577593021</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4553850404412085</v>
+        <v>0.4699343461114292</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4680608554996114</v>
+        <v>0.4678557821860911</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4632739700077452</v>
+        <v>0.4659339972669935</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4553270025706309</v>
+        <v>0.5631267031957581</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4740007609743973</v>
+        <v>0.588173005568098</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4768011006775764</v>
+        <v>0.5915487951185309</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4269614239371008</v>
+        <v>0.5428496239028617</v>
       </c>
       <c r="U15" t="n">
-        <v>0.4218090805671934</v>
+        <v>0.5348263295611327</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4428829709769466</v>
+        <v>0.5733039319358593</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4318124738517613</v>
+        <v>0.5569958108469376</v>
       </c>
       <c r="X15" t="n">
-        <v>0.4964682826656566</v>
+        <v>0.5108099802568559</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5103920409420798</v>
+        <v>0.5215402339698951</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.5110380341090415</v>
+        <v>0.5249744883183132</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4876040628200527</v>
+        <v>0.4907923252808826</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.4821529241773536</v>
+        <v>0.4876535105041736</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.4879480844319499</v>
+        <v>0.5168789747989334</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.4803564314019066</v>
+        <v>0.5073357613457374</v>
       </c>
     </row>
     <row r="16">
@@ -1873,91 +1873,91 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3946977046958465</v>
+        <v>0.4902532595190309</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5549436183183548</v>
+        <v>0.5797040249415902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5572849112766449</v>
+        <v>0.5595227904286674</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5529149232564462</v>
+        <v>0.5626464813422443</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5856832366479578</v>
+        <v>0.5856534168540038</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5855254332531465</v>
+        <v>0.5969633208501254</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5553553359541842</v>
+        <v>0.6060726485696224</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5602419941603404</v>
+        <v>0.6139391413333443</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2414036482622509</v>
+        <v>0.2844316132705013</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2841366924062487</v>
+        <v>0.2870699628704615</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2824171422945888</v>
+        <v>0.2944569210457481</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1884318887763634</v>
+        <v>0.1910070723033571</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1418817075032919</v>
+        <v>0.1935728977956484</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1754931470756343</v>
+        <v>0.2897682603690265</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1316295940889194</v>
+        <v>0.2802247792356422</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3789807373242395</v>
+        <v>0.4239117773387548</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4840223091755887</v>
+        <v>0.4558447934112844</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4862974580169457</v>
+        <v>0.4782601402398686</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2981996899640102</v>
+        <v>0.2769357271011048</v>
       </c>
       <c r="U16" t="n">
-        <v>0.240223132833796</v>
+        <v>0.2756050366925971</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3214898503426441</v>
+        <v>0.4969969531799482</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2491736427446266</v>
+        <v>0.4552760791878192</v>
       </c>
       <c r="X16" t="n">
-        <v>0.2663840461220992</v>
+        <v>0.6505153589569502</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3171977408263373</v>
+        <v>0.7142927749056366</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3225518514794694</v>
+        <v>0.7324300919398161</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1917703434991136</v>
+        <v>0.5941906227022611</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1524052434971762</v>
+        <v>0.5791731180153618</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2271004819753224</v>
+        <v>0.7298214171387297</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.172615744804787</v>
+        <v>0.6736130465966271</v>
       </c>
     </row>
     <row r="17">
@@ -1965,91 +1965,91 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3970404641394781</v>
+        <v>0.435790717595721</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5368528568895071</v>
+        <v>0.5510006098867527</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5394473369549267</v>
+        <v>0.5399481104554047</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5340120419408805</v>
+        <v>0.5402692848398946</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5702990772388745</v>
+        <v>0.5648869916372178</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5692843637200335</v>
+        <v>0.5717433335291467</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5328490482426002</v>
+        <v>0.5666676864691823</v>
       </c>
       <c r="I17" t="n">
-        <v>0.538127361581058</v>
+        <v>0.5731490359530745</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2800767270332142</v>
+        <v>0.2879983810760491</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3083889162877551</v>
+        <v>0.307943741510215</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3054982537035972</v>
+        <v>0.3091173937520296</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2610169455382448</v>
+        <v>0.2474064246854782</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2404219999271129</v>
+        <v>0.2324150304759343</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2332876694752595</v>
+        <v>0.2640451437776368</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2165017670861767</v>
+        <v>0.2483940656000448</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4490678951047264</v>
+        <v>0.3958247862779192</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5551546097904754</v>
+        <v>0.4554404328347078</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5536803846316339</v>
+        <v>0.4678886781530023</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4099580445394637</v>
+        <v>0.3065810663136151</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3720690171603205</v>
+        <v>0.2803739272946033</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4087785534370978</v>
+        <v>0.4027692308330189</v>
       </c>
       <c r="W17" t="n">
-        <v>0.36457493829473</v>
+        <v>0.3497467303673124</v>
       </c>
       <c r="X17" t="n">
-        <v>0.2673633817005653</v>
+        <v>0.4473181605041331</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3027238885288157</v>
+        <v>0.4984610619209469</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.3081567212785775</v>
+        <v>0.5079352062001514</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.2082887735145882</v>
+        <v>0.3912796745782833</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1884417503900004</v>
+        <v>0.3721275171966708</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.244324117965391</v>
+        <v>0.458845960486599</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.2125213251616612</v>
+        <v>0.4180925665283239</v>
       </c>
     </row>
     <row r="18">
@@ -2057,91 +2057,91 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3888926968983407</v>
+        <v>0.4259248832660603</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4780626504612546</v>
+        <v>0.4877376526369088</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4798050689545314</v>
+        <v>0.4806217756596309</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4773073984592244</v>
+        <v>0.4812326194060688</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4941707232150653</v>
+        <v>0.4937780289839594</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4938072154623314</v>
+        <v>0.4978190066071644</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4775352718116431</v>
+        <v>0.4973562009757857</v>
       </c>
       <c r="I18" t="n">
-        <v>0.480039540823783</v>
+        <v>0.5006963961371379</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3165433322665228</v>
+        <v>0.3268026674208414</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3342496007244675</v>
+        <v>0.3347896757296707</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3329919754272523</v>
+        <v>0.3364187146598621</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3023052639477419</v>
+        <v>0.2998046249695829</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2908800339431253</v>
+        <v>0.2952060275124173</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2927864780697323</v>
+        <v>0.3191012295177928</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2834767674597684</v>
+        <v>0.3124126766159298</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3936151643666079</v>
+        <v>0.3967405729947407</v>
       </c>
       <c r="R18" t="n">
-        <v>0.448683163676049</v>
+        <v>0.4267988075419358</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4490753605414521</v>
+        <v>0.4357552756034964</v>
       </c>
       <c r="T18" t="n">
-        <v>0.362666709229367</v>
+        <v>0.3361352076867301</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3402420965187698</v>
+        <v>0.3265627381488018</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3660841100507922</v>
+        <v>0.4144787677305072</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3381537536169171</v>
+        <v>0.3872159352139591</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3155235533438787</v>
+        <v>0.4606046553378429</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3381919964700703</v>
+        <v>0.4865223605457543</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.3410887178435762</v>
+        <v>0.4915573275930777</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.2864756970590698</v>
+        <v>0.4319727804376555</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2766310556519291</v>
+        <v>0.4227665122871216</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3004381626773145</v>
+        <v>0.4753485452308589</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.2837758386085641</v>
+        <v>0.4552435577376918</v>
       </c>
     </row>
     <row r="19">
@@ -2149,91 +2149,91 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4287826667879046</v>
+        <v>0.472133251834144</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4196838658359952</v>
+        <v>0.4281313393933261</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4203440320341242</v>
+        <v>0.4218433888203341</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4215173772984552</v>
+        <v>0.4242284234215066</v>
       </c>
       <c r="F19" t="n">
-        <v>0.414605969747137</v>
+        <v>0.4192832698213255</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4146985339943616</v>
+        <v>0.4221011566276419</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4221977395472432</v>
+        <v>0.4343390171826821</v>
       </c>
       <c r="I19" t="n">
-        <v>0.42096247035085</v>
+        <v>0.4344348802034375</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4493086953288421</v>
+        <v>0.4638138884196013</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4475474714955524</v>
+        <v>0.4494885108668271</v>
       </c>
       <c r="L19" t="n">
-        <v>0.44884244691543</v>
+        <v>0.4524140151799065</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4457155354839748</v>
+        <v>0.4555051439326841</v>
       </c>
       <c r="N19" t="n">
-        <v>0.447456213847684</v>
+        <v>0.4652849075621782</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4586448534934481</v>
+        <v>0.4844089517050587</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4585235378206733</v>
+        <v>0.4898167889412066</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3692885309698868</v>
+        <v>0.4544729554546035</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3564232877368648</v>
+        <v>0.4209862927712356</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3579109584668785</v>
+        <v>0.4275924794242312</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3611263464347214</v>
+        <v>0.4373312898869816</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3678015489155457</v>
+        <v>0.4560650006083707</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3648818103229108</v>
+        <v>0.5077414228452574</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3701611040302239</v>
+        <v>0.520583249058865</v>
       </c>
       <c r="X19" t="n">
-        <v>0.4569597693766428</v>
+        <v>0.5998589718224203</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.4560456789569423</v>
+        <v>0.5852069635511512</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.4543041269362852</v>
+        <v>0.5852811738039215</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.4674123167279202</v>
+        <v>0.6175157639399571</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.4672603662289002</v>
+        <v>0.6252393432135643</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.4534939142202801</v>
+        <v>0.6469445898412268</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.4559834350965712</v>
+        <v>0.6582670122009904</v>
       </c>
     </row>
     <row r="20">
@@ -2241,91 +2241,91 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4359478220298897</v>
+        <v>0.4397362727510117</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5373656136209319</v>
+        <v>0.5403331750089735</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5393595823477848</v>
+        <v>0.5391096904840667</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5358179290614618</v>
+        <v>0.5375117517378305</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5586894036287243</v>
+        <v>0.5551886861901867</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5580209961646535</v>
+        <v>0.5566242303192941</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5349668792551903</v>
+        <v>0.5441627063586583</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5383668591415335</v>
+        <v>0.5473942972319258</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3543371904905824</v>
+        <v>0.3531295587342181</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3739230951538897</v>
+        <v>0.3731507782561431</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3718247547300411</v>
+        <v>0.3723403219356484</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3427837941315718</v>
+        <v>0.3342739089281666</v>
       </c>
       <c r="N20" t="n">
-        <v>0.329887203788346</v>
+        <v>0.3209293629519773</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3243538026991496</v>
+        <v>0.3276673892118714</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3146745897867808</v>
+        <v>0.3156392716357648</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4692108350768696</v>
+        <v>0.4211431714926929</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5380879800679722</v>
+        <v>0.4796882225047828</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5373476783652814</v>
+        <v>0.4831510351550071</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4418181708604101</v>
+        <v>0.3752297894430033</v>
       </c>
       <c r="U20" t="n">
-        <v>0.415259541023654</v>
+        <v>0.3495794113924805</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4391281346301839</v>
+        <v>0.3889607236309503</v>
       </c>
       <c r="W20" t="n">
-        <v>0.4079424399859041</v>
+        <v>0.3494426825596524</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3396261960534593</v>
+        <v>0.3605908688671168</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3641574517821891</v>
+        <v>0.3960941129831421</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.3679690895830459</v>
+        <v>0.4000476780142853</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.3029664989779728</v>
+        <v>0.3186799416690693</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.2922613241664592</v>
+        <v>0.301714928784554</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3233873213760544</v>
+        <v>0.3335747925741055</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3042593424529688</v>
+        <v>0.304685973317776</v>
       </c>
     </row>
     <row r="21">
@@ -2333,91 +2333,91 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4840464081732285</v>
+        <v>0.4887124500652636</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5190324995592036</v>
+        <v>0.5207689301161503</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5195990032792287</v>
+        <v>0.5202500189529798</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5197166910838482</v>
+        <v>0.5199301852125847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5215395148782175</v>
+        <v>0.524806575722486</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5219063203207424</v>
+        <v>0.5253738581030131</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5221546556745821</v>
+        <v>0.5225986345312648</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5223965647926011</v>
+        <v>0.5235264463419308</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4620619922297416</v>
+        <v>0.4627996971453384</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4674444419030674</v>
+        <v>0.4679918458810324</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4681277089930727</v>
+        <v>0.4679279921271247</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4522812460165917</v>
+        <v>0.4572002935401681</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4497440889490874</v>
+        <v>0.4542007211199795</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4601943233206199</v>
+        <v>0.4571278895036269</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4567410015935452</v>
+        <v>0.4542708970671313</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4395288632179637</v>
+        <v>0.4774392189899805</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4503935667061368</v>
+        <v>0.4937258302186668</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4525903471861439</v>
+        <v>0.4950602519337099</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4185420509120432</v>
+        <v>0.4633421832848768</v>
       </c>
       <c r="U21" t="n">
-        <v>0.4159582620561146</v>
+        <v>0.4574115376386689</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4305662796960157</v>
+        <v>0.4691592120747745</v>
       </c>
       <c r="W21" t="n">
-        <v>0.423600125881208</v>
+        <v>0.4593244310232194</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4804390973844502</v>
+        <v>0.4710533492187166</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.490181966077758</v>
+        <v>0.4813876094677629</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.4904173807725259</v>
+        <v>0.4825270799223167</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.4753429356346132</v>
+        <v>0.4608324584263381</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.4714152601922756</v>
+        <v>0.4568955640715058</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.4739859344253094</v>
+        <v>0.4650972857832572</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.4688590157211237</v>
+        <v>0.4582814329096751</v>
       </c>
     </row>
     <row r="22">
@@ -2425,91 +2425,91 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.462848201929237</v>
+        <v>0.4548337572411184</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6046282485760434</v>
+        <v>0.6063344814752397</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6076779753689819</v>
+        <v>0.6065739530509469</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6011256992569314</v>
+        <v>0.6030194537400324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6436283597643859</v>
+        <v>0.6346902802239678</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6420958221370862</v>
+        <v>0.6359283247169182</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5981015779969695</v>
+        <v>0.6092960041883807</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6041797537648833</v>
+        <v>0.6145361557292549</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3565968057268564</v>
+        <v>0.3503446098262157</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3814603600187395</v>
+        <v>0.3794151938745136</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3776765172325583</v>
+        <v>0.3777250642892452</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3485378415956911</v>
+        <v>0.3282245593716335</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3316504299582574</v>
+        <v>0.3079009023791414</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3114132245405837</v>
+        <v>0.312631905717606</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2997331608423442</v>
+        <v>0.2946807252916514</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5475730031596893</v>
+        <v>0.4334432213873086</v>
       </c>
       <c r="R22" t="n">
-        <v>0.6648026432960089</v>
+        <v>0.5273197216729862</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6614253509080436</v>
+        <v>0.5303107985485396</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5198629449310925</v>
+        <v>0.3749940441192823</v>
       </c>
       <c r="U22" t="n">
-        <v>0.482987132911799</v>
+        <v>0.3328892810322145</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5084595561038645</v>
+        <v>0.367422543192181</v>
       </c>
       <c r="W22" t="n">
-        <v>0.467890128605602</v>
+        <v>0.3029653549390689</v>
       </c>
       <c r="X22" t="n">
-        <v>0.3136390583490977</v>
+        <v>0.3122261348607335</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3449963651415034</v>
+        <v>0.3646525001538056</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.3511351504164045</v>
+        <v>0.369311764285372</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.2525083398569787</v>
+        <v>0.2459529377603876</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.2371011003900447</v>
+        <v>0.2119353102703773</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.2928957960118067</v>
+        <v>0.2481968090535624</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.2649217944273705</v>
+        <v>0.1872750736235602</v>
       </c>
     </row>
     <row r="23">
@@ -2517,91 +2517,91 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5267590608674766</v>
+        <v>0.5027097570235961</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5756900149539502</v>
+        <v>0.5708934219449409</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5764491462769233</v>
+        <v>0.575986563874896</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5754980414161341</v>
+        <v>0.5735811717213756</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5831206348135376</v>
+        <v>0.5829894591855977</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5831855608804073</v>
+        <v>0.5810353420132799</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5767418857601012</v>
+        <v>0.5673938750160398</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5778992116807107</v>
+        <v>0.5681933216667032</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4911178668416795</v>
+        <v>0.4833819363140301</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4992310017537941</v>
+        <v>0.4986678290778158</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4990164597885771</v>
+        <v>0.4966544201036357</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4828327674429592</v>
+        <v>0.4826446841735016</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4782250422552151</v>
+        <v>0.473060478962068</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4824132187476807</v>
+        <v>0.4639411789297639</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4782524370017047</v>
+        <v>0.4573983144302242</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5133397704470301</v>
+        <v>0.5017197238549046</v>
       </c>
       <c r="R23" t="n">
-        <v>0.53895645428275</v>
+        <v>0.5433995917364084</v>
       </c>
       <c r="S23" t="n">
-        <v>0.5400151880739245</v>
+        <v>0.5399249748074629</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4938877017734768</v>
+        <v>0.4977694017370656</v>
       </c>
       <c r="U23" t="n">
-        <v>0.484708062752236</v>
+        <v>0.4792260716408527</v>
       </c>
       <c r="V23" t="n">
-        <v>0.499964472356287</v>
+        <v>0.4550850507175054</v>
       </c>
       <c r="W23" t="n">
-        <v>0.4870096072288552</v>
+        <v>0.437378473061915</v>
       </c>
       <c r="X23" t="n">
-        <v>0.4980793734368203</v>
+        <v>0.3932973584960045</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5097608673474224</v>
+        <v>0.4111482311616593</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.5109747525093344</v>
+        <v>0.4117822827692486</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.4862774230827943</v>
+        <v>0.3741400156399288</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.4817858813973916</v>
+        <v>0.3660521785129446</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4908385035676791</v>
+        <v>0.3557627906454005</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.4834877150700716</v>
+        <v>0.3439000330375241</v>
       </c>
     </row>
     <row r="24">
@@ -2609,91 +2609,91 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5694417763061755</v>
+        <v>0.5640888015756984</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4696393705379852</v>
+        <v>0.4647038911003975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4679434222957279</v>
+        <v>0.4689753573609525</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4734241268305945</v>
+        <v>0.470042681109826</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4400661748599048</v>
+        <v>0.450219662513706</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4414212044278519</v>
+        <v>0.4472031291690307</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4768534164039119</v>
+        <v>0.4576858662355047</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4718713398492785</v>
+        <v>0.4534853459257921</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6583305359538064</v>
+        <v>0.6609994088365201</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6424152711540704</v>
+        <v>0.6442854445646062</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6460884975710075</v>
+        <v>0.6449810871528071</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6594544318004312</v>
+        <v>0.6784040361592369</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6703162262436818</v>
+        <v>0.6892717716275907</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6941887304059138</v>
+        <v>0.6852106299752928</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6996117465998763</v>
+        <v>0.6951180408564394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4632095561967345</v>
+        <v>0.5688725821831209</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3702462717002704</v>
+        <v>0.5197825616687852</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3749157907884131</v>
+        <v>0.5145114958401628</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4760614772709859</v>
+        <v>0.6118843472437844</v>
       </c>
       <c r="U24" t="n">
-        <v>0.5065061264720448</v>
+        <v>0.630663903174478</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4883640343931352</v>
+        <v>0.5801273458650754</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5183682042954288</v>
+        <v>0.6128897394324941</v>
       </c>
       <c r="X24" t="n">
-        <v>0.6791421657259706</v>
+        <v>0.6220559603590606</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.6628581932999884</v>
+        <v>0.5860652222217597</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6574486802475678</v>
+        <v>0.5804964360140195</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.7201847355248963</v>
+        <v>0.6682415801274194</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.725578219813195</v>
+        <v>0.6831871841143955</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.681614192106353</v>
+        <v>0.6352382381153295</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.6962435973600611</v>
+        <v>0.6633767066819743</v>
       </c>
     </row>
   </sheetData>
